--- a/server/LISTAS/ma/CORTINA Y PROTECTOR DE BAÑO DISMAY.xlsx
+++ b/server/LISTAS/ma/CORTINA Y PROTECTOR DE BAÑO DISMAY.xlsx
@@ -916,7 +916,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/ma/CORTINA Y PROTECTOR DE BAÑO DISMAY.xlsx
+++ b/server/LISTAS/ma/CORTINA Y PROTECTOR DE BAÑO DISMAY.xlsx
@@ -916,7 +916,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/ma/CORTINA Y PROTECTOR DE BAÑO DISMAY.xlsx
+++ b/server/LISTAS/ma/CORTINA Y PROTECTOR DE BAÑO DISMAY.xlsx
@@ -916,7 +916,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C29" s="45" t="n"/>
       <c r="D29" s="46" t="n">
-        <v>1440</v>
+        <v>1774.08</v>
       </c>
       <c r="E29" s="47" t="n"/>
       <c r="F29" s="47" t="n"/>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C30" s="43" t="n"/>
       <c r="D30" s="46" t="n">
-        <v>906</v>
+        <v>1116.192</v>
       </c>
       <c r="E30" s="47" t="n"/>
       <c r="F30" s="47" t="n"/>
@@ -1075,15 +1075,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/CORTINA Y PROTECTOR DE BAÑO DISMAY.xlsx
+++ b/server/LISTAS/ma/CORTINA Y PROTECTOR DE BAÑO DISMAY.xlsx
@@ -916,7 +916,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/ma/CORTINA Y PROTECTOR DE BAÑO DISMAY.xlsx
+++ b/server/LISTAS/ma/CORTINA Y PROTECTOR DE BAÑO DISMAY.xlsx
@@ -916,7 +916,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1075,15 +1075,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/CORTINA Y PROTECTOR DE BAÑO DISMAY.xlsx
+++ b/server/LISTAS/ma/CORTINA Y PROTECTOR DE BAÑO DISMAY.xlsx
@@ -916,7 +916,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1075,15 +1075,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/CORTINA Y PROTECTOR DE BAÑO DISMAY.xlsx
+++ b/server/LISTAS/ma/CORTINA Y PROTECTOR DE BAÑO DISMAY.xlsx
@@ -916,7 +916,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1075,15 +1075,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/CORTINA Y PROTECTOR DE BAÑO DISMAY.xlsx
+++ b/server/LISTAS/ma/CORTINA Y PROTECTOR DE BAÑO DISMAY.xlsx
@@ -916,7 +916,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C29" s="45" t="n"/>
       <c r="D29" s="46" t="n">
-        <v>1440</v>
+        <v>4850</v>
       </c>
       <c r="E29" s="47" t="n"/>
       <c r="F29" s="47" t="n"/>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C30" s="43" t="n"/>
       <c r="D30" s="46" t="n">
-        <v>906</v>
+        <v>2300</v>
       </c>
       <c r="E30" s="47" t="n"/>
       <c r="F30" s="47" t="n"/>
@@ -1075,15 +1075,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
